--- a/GB Accounts 2025-26/GB Accounts Employee Expenses 2026-04-05 (Apr26) Excel 2007/expensesform.xlsx
+++ b/GB Accounts 2025-26/GB Accounts Employee Expenses 2026-04-05 (Apr26) Excel 2007/expensesform.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony/projects/diy-accounting/GB Accounts 2024-25/GB Accounts Employee Expenses 2025-04-05 (Apr25) Excel 2007/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony/projects/diy-accounting/GB Accounts 2025-26/GB Accounts Employee Expenses 2026-04-05 (Apr26) Excel 2007/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F89E9C5-CAFB-7848-8E95-BC57948485ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0253A0-74CE-FD46-8C25-7269627E6B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,6 +505,38 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -519,38 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -881,63 +881,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <v>20</v>
       </c>
@@ -946,14 +946,14 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -967,7 +967,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="51">
-        <v>45412</v>
+        <v>45777</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -1724,14 +1724,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
@@ -1750,53 +1750,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
@@ -1812,10 +1812,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -1839,19 +1839,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>45412</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45777</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -1896,10 +1896,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -1912,10 +1912,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -1927,26 +1927,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -1963,11 +1963,14 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E40:F40"/>
@@ -1982,14 +1985,11 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -2029,66 +2029,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 09'!B5:D5&gt;0,'Month 09'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 09'!H5</f>
         <v>20</v>
@@ -2098,18 +2098,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 09'!B6:D6&gt;0,'Month 09'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 09'!G6),MONTH('Month 09'!G6)+1,1)</f>
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -2886,14 +2886,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
@@ -2912,53 +2912,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
@@ -2974,10 +2974,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -3001,19 +3001,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>45688</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>46053</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -3058,10 +3058,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -3074,10 +3074,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -3089,26 +3089,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -3125,16 +3125,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -3146,12 +3142,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -3188,66 +3188,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 10'!B5:D5&gt;0,'Month 10'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 10'!H5</f>
         <v>20</v>
@@ -3257,18 +3257,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 10'!B6:D6&gt;0,'Month 10'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 10'!G6),MONTH('Month 10'!G6)+1,1)</f>
-        <v>45689</v>
+        <v>46054</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -4045,14 +4045,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
@@ -4071,53 +4071,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
@@ -4133,10 +4133,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -4160,19 +4160,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>45716</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>46081</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -4202,10 +4202,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -4217,10 +4217,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -4233,10 +4233,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -4248,26 +4248,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -4284,16 +4284,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -4305,12 +4301,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4347,66 +4347,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 11'!B5:D5&gt;0,'Month 11'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 11'!H5</f>
         <v>20</v>
@@ -4416,18 +4416,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 11'!B6:D6&gt;0,'Month 11'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 11'!G6),MONTH('Month 11'!G6)+1,1)</f>
-        <v>45717</v>
+        <v>46082</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -5204,14 +5204,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
@@ -5230,53 +5230,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
@@ -5292,10 +5292,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -5319,19 +5319,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>45747</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>46112</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -5361,10 +5361,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -5376,10 +5376,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -5392,10 +5392,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -5407,26 +5407,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -5443,16 +5443,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -5464,12 +5460,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -5509,66 +5509,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 01'!B5:D5&gt;0,'Month 01'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 01'!H5</f>
         <v>20</v>
@@ -5578,18 +5578,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 01'!B6:D6&gt;0,'Month 01'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 01'!G6),MONTH('Month 01'!G6)+1,1)</f>
-        <v>45413</v>
+        <v>45778</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
       <c r="H7" s="51"/>
       <c r="Q7" s="38"/>
@@ -6367,14 +6367,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
@@ -6393,53 +6393,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
@@ -6455,10 +6455,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -6482,19 +6482,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>45443</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45808</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -6524,10 +6524,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -6539,10 +6539,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -6555,10 +6555,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -6570,26 +6570,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -6606,16 +6606,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -6627,12 +6623,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -6671,66 +6671,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 02'!B5:D5&gt;0,'Month 02'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 02'!H5</f>
         <v>20</v>
@@ -6740,18 +6740,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 02'!B6:D6&gt;0,'Month 02'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 02'!G6),MONTH('Month 02'!G6)+1,DAY('Month 02'!G6))</f>
-        <v>45444</v>
+        <v>45809</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -6772,7 +6772,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -7528,14 +7528,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
@@ -7554,53 +7554,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
@@ -7616,10 +7616,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -7643,19 +7643,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>45473</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45838</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -7685,10 +7685,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -7700,10 +7700,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -7716,10 +7716,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -7731,26 +7731,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -7767,16 +7767,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -7788,12 +7784,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -7831,66 +7831,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 03'!B5:D5&gt;0,'Month 03'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 03'!H5</f>
         <v>20</v>
@@ -7900,18 +7900,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 03'!B6:D6&gt;0,'Month 03'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 03'!G6),MONTH('Month 03'!G6)+1,1)</f>
-        <v>45474</v>
+        <v>45839</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -7932,7 +7932,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -8688,14 +8688,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
@@ -8714,53 +8714,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
@@ -8776,10 +8776,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8795,7 +8795,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -8803,19 +8803,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>45504</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45869</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -8845,10 +8845,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -8860,10 +8860,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -8876,10 +8876,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -8891,26 +8891,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -8927,16 +8927,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -8948,12 +8944,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -8992,66 +8992,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 04'!B5:D5&gt;0,'Month 04'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 04'!H5</f>
         <v>20</v>
@@ -9061,18 +9061,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 04'!B6:D6&gt;0,'Month 04'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 04'!G6),MONTH('Month 04'!G6)+1,1)</f>
-        <v>45505</v>
+        <v>45870</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -9849,14 +9849,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
@@ -9875,53 +9875,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
@@ -9937,10 +9937,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -9964,19 +9964,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>45535</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45900</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -10006,10 +10006,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -10021,10 +10021,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -10037,10 +10037,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -10052,26 +10052,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -10088,16 +10088,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -10109,12 +10105,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -10152,66 +10152,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 05'!B5:D5&gt;0,'Month 05'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 05'!H5</f>
         <v>20</v>
@@ -10221,18 +10221,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 05'!B6:D6&gt;0,'Month 05'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 05'!G6),MONTH('Month 05'!G6)+1,1)</f>
-        <v>45536</v>
+        <v>45901</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -11009,14 +11009,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
@@ -11035,53 +11035,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
@@ -11097,10 +11097,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11116,7 +11116,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -11124,19 +11124,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>45565</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45930</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -11166,10 +11166,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -11181,10 +11181,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -11197,10 +11197,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -11212,26 +11212,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -11248,16 +11248,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -11269,12 +11265,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -11312,66 +11312,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 06'!B5:D5&gt;0,'Month 06'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 06'!H5</f>
         <v>20</v>
@@ -11381,18 +11381,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 06'!B6:D6&gt;0,'Month 06'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 06'!G6),MONTH('Month 06'!G6)+1,1)</f>
-        <v>45566</v>
+        <v>45931</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -11413,7 +11413,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -12169,14 +12169,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
@@ -12195,53 +12195,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
@@ -12257,10 +12257,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12276,7 +12276,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -12284,19 +12284,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>45596</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45961</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -12326,10 +12326,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -12341,10 +12341,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -12357,10 +12357,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -12372,26 +12372,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -12408,16 +12408,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -12429,12 +12425,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -12472,66 +12472,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 07'!B5:D5&gt;0,'Month 07'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 07'!H5</f>
         <v>20</v>
@@ -12541,18 +12541,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 07'!B6:D6&gt;0,'Month 07'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 07'!G6),MONTH('Month 07'!G6)+1,1)</f>
-        <v>45597</v>
+        <v>45962</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -12573,7 +12573,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -13329,14 +13329,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
@@ -13355,53 +13355,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
@@ -13417,10 +13417,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13436,7 +13436,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -13444,19 +13444,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>45626</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>45991</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -13486,10 +13486,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -13501,10 +13501,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -13517,10 +13517,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -13532,26 +13532,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -13568,16 +13568,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -13589,12 +13585,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -13632,66 +13632,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="42" t="str">
         <f>IF('Month 08'!B5:D5&gt;0,'Month 08'!B5:D5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="37">
         <f>'Month 08'!H5</f>
         <v>20</v>
@@ -13701,18 +13701,18 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF('Month 08'!B6:D6&gt;0,'Month 08'!B6:D6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="51">
         <f>DATE(YEAR('Month 08'!G6),MONTH('Month 08'!G6)+1,1)</f>
-        <v>45627</v>
+        <v>45992</v>
       </c>
       <c r="H6" s="51"/>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="G7" s="51">
         <f>DATE(YEAR(G6),MONTH(G6),DAY(DATE(YEAR(G6),MONTH(G6)+1,1)-1))</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="H7" s="51"/>
     </row>
@@ -14489,14 +14489,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
@@ -14515,53 +14515,53 @@
       <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
@@ -14577,10 +14577,10 @@
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:8" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14596,7 +14596,7 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="28"/>
@@ -14604,19 +14604,19 @@
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <f>IF(G7&gt;0,G7," ")</f>
-        <v>45657</v>
-      </c>
-      <c r="B44" s="45" t="str">
+        <v>46022</v>
+      </c>
+      <c r="B44" s="47" t="str">
         <f>IF(B5&gt;0,B5," ")</f>
         <v/>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
@@ -14646,10 +14646,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="24" t="str">
         <f>IF(J31&gt;0,J31," ")</f>
         <v xml:space="preserve"> </v>
@@ -14661,10 +14661,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="24" t="str">
         <f>IF(K31&gt;0,K31," ")</f>
         <v xml:space="preserve"> </v>
@@ -14677,10 +14677,10 @@
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="24" t="str">
         <f>IF(L31&gt;0,L31," ")</f>
         <v xml:space="preserve"> </v>
@@ -14692,26 +14692,26 @@
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="45"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="24" t="str">
         <f>IF(M31&gt;0,M31," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="30"/>
       <c r="F51" s="24"/>
       <c r="H51" s="18"/>
@@ -14728,16 +14728,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G42:G43"/>
@@ -14749,12 +14745,16 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
